--- a/biology/Zoologie/Campagnol_d'Ondrias/Campagnol_d'Ondrias.xlsx
+++ b/biology/Zoologie/Campagnol_d'Ondrias/Campagnol_d'Ondrias.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Campagnol_d%27Ondrias</t>
+          <t>Campagnol_d'Ondrias</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Microtus levis
 Le Campagnol d'Ondrias (Microtus levis) est une espèce de rongeurs myomorphes de la famille des Cricetidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Campagnol_d%27Ondrias</t>
+          <t>Campagnol_d'Ondrias</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Aire de répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce campagnol est endémique de l'Eurasie. Il se rencontre dans les pays suivants : en Albanie[1], en Arménie, en Azerbaïdjan, en Biélorussie, en Bulgarie, en Estonie, en Finlande, en Grèce, en Iran, au Kazakhstan, en Lettonie, en Lituanie, en Macédoine, en Moldavie, au Monténégro, en Roumanie, en Russie, en Serbie (Kosovo compris), en Turquie et en Ukraine. Il a été introduit dans le Svalbard, en Norvège[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce campagnol est endémique de l'Eurasie. Il se rencontre dans les pays suivants : en Albanie, en Arménie, en Azerbaïdjan, en Biélorussie, en Bulgarie, en Estonie, en Finlande, en Grèce, en Iran, au Kazakhstan, en Lettonie, en Lituanie, en Macédoine, en Moldavie, au Monténégro, en Roumanie, en Russie, en Serbie (Kosovo compris), en Turquie et en Ukraine. Il a été introduit dans le Svalbard, en Norvège.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Campagnol_d%27Ondrias</t>
+          <t>Campagnol_d'Ondrias</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vulgaire attesté en français est le Campagnol d'Ondrias[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vulgaire attesté en français est le Campagnol d'Ondrias.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Campagnol_d%27Ondrias</t>
+          <t>Campagnol_d'Ondrias</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Cette espèce a été décrite en 1908 par le zoologiste américain Gerrit Smith Miller, Jr[4]. Les synonymes attestés sont[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Cette espèce a été décrite en 1908 par le zoologiste américain Gerrit Smith Miller, Jr. Les synonymes attestés sont :
 Microtus rossiaemeridionalis Ognev, 1924
 Microtus epiroticus Ondrias, 1966
 Microtus subarvalis Meyer, Orlov &amp; Skholl, 1972</t>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Campagnol_d%27Ondrias</t>
+          <t>Campagnol_d'Ondrias</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,9 +625,11 @@
           <t>Le Campagnol d'Ondrias et l'Homme</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Campagnol d'Ondrias est considéré comme de « préoccupation mineure » par l'Union internationale pour la conservation de la nature[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Campagnol d'Ondrias est considéré comme de « préoccupation mineure » par l'Union internationale pour la conservation de la nature.
 </t>
         </is>
       </c>
